--- a/data/reviewlikes.xlsx
+++ b/data/reviewlikes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sesac_project_git\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sesac_project_git\data\data_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DC7349-97A9-4153-B593-1A5C581E0EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42461BB7-9091-4CD9-B674-E554EB7927E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="3015" windowWidth="15810" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12435" yWindow="1185" windowWidth="15810" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰 테이블 데이터" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>USERID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -97,13 +97,19 @@
   <si>
     <t>yubin3</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbskim</t>
+  </si>
+  <si>
+    <t>yubin3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +268,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -689,8 +702,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1276,6 +1292,149 @@
         <v>3</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
